--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="126">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -29,10 +29,358 @@
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
   </si>
   <si>
+    <t>指紋認証_PDC0S_1761</t>
+  </si>
+  <si>
+    <t>[指紋によるロック解除（画面内センサー端末向け）] 設定の追加</t>
+  </si>
+  <si>
+    <t>Tests/manual/指紋認証/PDC0S/[指紋によるロック解除（画面内センサー端末向け）] 設定の追加.MD</t>
+  </si>
+  <si>
+    <t>10/15/21 15:15:15</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
+    <t>本体設定_PKC0S_2603</t>
+  </si>
+  <si>
+    <t>[ネットワーク]「プロキシ設定」メニューの追加(SettingsApps_00070)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PKC0S/[ネットワーク]「プロキシ設定」メニューの追加(SettingsApps_00070).MD</t>
+  </si>
+  <si>
+    <t>10/20/21 15:15:15</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5958</t>
+  </si>
+  <si>
+    <t>[設定][セキュリティ] 信頼できる認証情報を表示するタブの、表示不具合に対応する</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][セキュリティ] 信頼できる認証情報を表示するタブの、表示不具合に対応する.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_2685</t>
+  </si>
+  <si>
+    <t>[設定] かんたんホーム設定時、フォントサイズ変更を行う導線を提供する</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定] かんたんホーム設定時、フォントサイズ変更を行う導線を提供する.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5908</t>
+  </si>
+  <si>
+    <t>[設定][ディスプレイ] カテゴリ「表示時間」の追加</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] カテゴリ「表示時間」の追加.MD</t>
+  </si>
+  <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6023</t>
+  </si>
+  <si>
+    <t>[設定][ストレージ] 容量表示の変更（SettingsApps_00252）</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ストレージ] 容量表示の変更（SettingsApps_00252）.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6161</t>
+  </si>
+  <si>
+    <t>[設定][全般] LED非搭載に伴い、関連項目を表示化する</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5717</t>
+  </si>
+  <si>
+    <t>[P6新規][設定][端末情報] 「電池の状態」メニュー追加(SettingsApps_00041)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][端末情報] 「電池の状態」メニュー追加(SettingsApps_00041).MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5670</t>
+  </si>
+  <si>
+    <t>[P6新規][設定][ディスプレイ] 画面OFF時にロック解除するための設定メニューの追加（SettingsApps_R005670）</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][ディスプレイ] 画面OFF時にロック解除するための設定メニューの追加（SettingsApps_R005670）.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5691</t>
+  </si>
+  <si>
+    <t>[P6新規][設定][ディスプレイ]「画面をダブルタップして通知を確認」を「画面をダブルタップしてロック画面を表示」へ名称変更（SettingsApps_R005691</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][ディスプレイ]「画面をダブルタップして通知を確認」を「画面をダブルタップしてロック画面を表示」へ名称変更（SettingsApps_R005691.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6101</t>
+  </si>
+  <si>
+    <t>[設定] 指紋センサー非搭載モデル対応 (SettingsApps_00241)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定] 指紋センサー非搭載モデル対応 (SettingsApps_00241).MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6370</t>
+  </si>
+  <si>
+    <t>[設定][その他] インターネット接続のパネルに機内モードを追加する（SettingsApps_00239）（R-OSから対応不要）</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][その他] インターネット接続のパネルに機内モードを追加する（SettingsApps_00239）（R-OSから対応不要）_1.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5693</t>
+  </si>
+  <si>
+    <t>[P6新規][設定][電池]インテリジェントチャージへの導線追加(SettingsApps_R005693)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][電池]インテリジェントチャージへの導線追加(SettingsApps_R005693).MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6295</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][その他] インターネット接続のパネルに機内モードを追加する（SettingsApps_00239）（R-OSから対応不要）.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6291</t>
+  </si>
+  <si>
+    <t>[DROP][設定][音] メディア音量を一定値以上に上げようとすると、ユーザー確認ダイアログが表示されるよう修正する</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[DROP][設定][音] メディア音量を一定値以上に上げようとすると、ユーザー確認ダイアログが表示されるよう修正する.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5942</t>
+  </si>
+  <si>
+    <t>[設定][ディスプレイ] カテゴリ「画面の操作」の追加</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] カテゴリ「画面の操作」の追加.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_395</t>
+  </si>
+  <si>
+    <t>[設定][ディスプレイ] 焼き付き対策(SettingsApps_00080)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] 焼き付き対策(SettingsApps_00080).MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_396</t>
+  </si>
+  <si>
+    <t>[設定][ディスプレイ] グローブモード(SettingsApps_00045)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] グローブモード(SettingsApps_00045).MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_191</t>
+  </si>
+  <si>
+    <t>[設定] プロキシ設定 の非表示化(SettingsApps_00070)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定] プロキシ設定 の非表示化(SettingsApps_00070).MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5909</t>
+  </si>
+  <si>
+    <t>[設定][ディスプレイ] カテゴリ「表示」の追加</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] カテゴリ「表示」の追加.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_2626</t>
+  </si>
+  <si>
+    <t>[ディスプレイ]「スマートカラーマッチング」メニューを追加する(SettingsApps_00236)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[ディスプレイ]「スマートカラーマッチング」メニューを追加する(SettingsApps_00236).MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5692</t>
+  </si>
+  <si>
+    <t>[Drop][P6新規][設定][ディスプレイ] Always ON Display(「時計表示ON」)　の照度連動設定を設ける</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[Drop][P6新規][設定][ディスプレイ] Always ON Display(「時計表示ON」)　の照度連動設定を設ける.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6569</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック][インテリジェントチャージ]「月に1回は満充電まで充電する」機能</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック][インテリジェントチャージ]「月に1回は満充電まで充電する」機能.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6567</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] インテリジェントチャージ</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] インテリジェントチャージ.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5818</t>
+  </si>
+  <si>
+    <t>[P6新規][AQUOS便利機能][指紋センサー] 画面内指紋センサーモデルの文言、カテゴリ変更</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能][指紋センサー] 画面内指紋センサーモデルの文言、カテゴリ変更.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6570</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック][インテリジェントチャージ]「デバイスを使ってない時だけ充電」機能</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック][インテリジェントチャージ]「デバイスを使ってない時だけ充電」機能.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6551</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にタップして指紋センサーと時計を表示（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にタップして指紋センサーと時計を表示（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6568</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック][インテリジェントチャージ]「充電量を制限する」機能</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック][インテリジェントチャージ]「充電量を制限する」機能.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6550</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）その他（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）その他（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6548</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）基本設定（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）基本設定（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_398</t>
+  </si>
+  <si>
+    <t>[設定][AQUOS便利機能][V1.00] 持つと画面点灯(00135)</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[設定][AQUOS便利機能][V1.00] 持つと画面点灯(00135).MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6549</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）Payトリガー（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）Payトリガー（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6545</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にダブルタップしてロック画面を表示（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にダブルタップしてロック画面を表示（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5666</t>
+  </si>
+  <si>
+    <t>[P6新規][AQUOS便利機能] AQUOS便利機能の強化</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能] AQUOS便利機能の強化.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_1855</t>
+  </si>
+  <si>
+    <t>[設定][AQUOS便利機能][V1.00] 自動画面点灯(SettingsApps_00135)</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[設定][AQUOS便利機能][V1.00] 自動画面点灯(SettingsApps_00135).MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5669</t>
+  </si>
+  <si>
+    <t>[P6新規][AQUOS便利機能][指紋センサー] 画面OFF時にロック解除するための設定メニューの追加（#6553と重複のため削除）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能][指紋センサー] 画面OFF時にロック解除するための設定メニューの追加（#6553と重複のため削除）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6543</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）設定（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）設定（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>1048</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Tests/abc.MD</t>
+  </si>
+  <si>
+    <t>12/12/22 13:47:59</t>
   </si>
   <si>
     <t>Not executed</t>
@@ -86,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -110,43 +458,679 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="127">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] インテリジェントチャージ.MD</t>
+  </si>
+  <si>
+    <t>10/16/21 15:15:15</t>
   </si>
   <si>
     <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5818</t>
@@ -477,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +503,7 @@
         <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -543,7 +546,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -566,7 +569,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G6" t="n">
         <v>38.0</v>
@@ -889,21 +892,21 @@
         <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -914,13 +917,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -931,13 +934,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -948,13 +951,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -965,13 +968,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -982,13 +985,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
@@ -999,13 +1002,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -1016,13 +1019,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -1033,13 +1036,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -1050,13 +1053,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -1067,13 +1070,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -1084,13 +1087,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -1101,13 +1104,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -1118,16 +1121,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -257,6 +257,9 @@
     <t>10/16/21 15:15:15</t>
   </si>
   <si>
+    <t>Suspended</t>
+  </si>
+  <si>
     <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5818</t>
   </si>
   <si>
@@ -387,9 +390,6 @@
   </si>
   <si>
     <t>Not executed</t>
-  </si>
-  <si>
-    <t>Suspended</t>
   </si>
   <si>
     <t>Total</t>
@@ -503,7 +503,7 @@
         <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -523,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -546,10 +546,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -895,18 +895,18 @@
         <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -917,13 +917,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -934,13 +934,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -951,13 +951,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -968,13 +968,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -985,13 +985,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
@@ -1002,13 +1002,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -1019,13 +1019,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -1036,13 +1036,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -1070,13 +1070,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -1104,13 +1104,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -1121,16 +1121,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -29,6 +29,204 @@
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
   </si>
   <si>
+    <t>本体設定_PKC0S_2603</t>
+  </si>
+  <si>
+    <t>[ネットワーク]「プロキシ設定」メニューの追加(SettingsApps_00070)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PKC0S/[ネットワーク]「プロキシ設定」メニューの追加(SettingsApps_00070).MD</t>
+  </si>
+  <si>
+    <t>10/20/21 15:15:15</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_395</t>
+  </si>
+  <si>
+    <t>[設定][ディスプレイ] 焼き付き対策(SettingsApps_00080)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] 焼き付き対策(SettingsApps_00080).MD</t>
+  </si>
+  <si>
+    <t>10/15/21 15:15:15</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_396</t>
+  </si>
+  <si>
+    <t>[設定][ディスプレイ] グローブモード(SettingsApps_00045)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] グローブモード(SettingsApps_00045).MD</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5942</t>
+  </si>
+  <si>
+    <t>[設定][ディスプレイ] カテゴリ「画面の操作」の追加</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] カテゴリ「画面の操作」の追加.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6370</t>
+  </si>
+  <si>
+    <t>[設定][その他] インターネット接続のパネルに機内モードを追加する（SettingsApps_00239）（R-OSから対応不要）</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][その他] インターネット接続のパネルに機内モードを追加する（SettingsApps_00239）（R-OSから対応不要）_1.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6023</t>
+  </si>
+  <si>
+    <t>[設定][ストレージ] 容量表示の変更（SettingsApps_00252）</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ストレージ] 容量表示の変更（SettingsApps_00252）.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_2626</t>
+  </si>
+  <si>
+    <t>[ディスプレイ]「スマートカラーマッチング」メニューを追加する(SettingsApps_00236)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[ディスプレイ]「スマートカラーマッチング」メニューを追加する(SettingsApps_00236).MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5717</t>
+  </si>
+  <si>
+    <t>[P6新規][設定][端末情報] 「電池の状態」メニュー追加(SettingsApps_00041)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][端末情報] 「電池の状態」メニュー追加(SettingsApps_00041).MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6101</t>
+  </si>
+  <si>
+    <t>[設定] 指紋センサー非搭載モデル対応 (SettingsApps_00241)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定] 指紋センサー非搭載モデル対応 (SettingsApps_00241).MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6295</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][その他] インターネット接続のパネルに機内モードを追加する（SettingsApps_00239）（R-OSから対応不要）.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5670</t>
+  </si>
+  <si>
+    <t>[P6新規][設定][ディスプレイ] 画面OFF時にロック解除するための設定メニューの追加（SettingsApps_R005670）</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][ディスプレイ] 画面OFF時にロック解除するための設定メニューの追加（SettingsApps_R005670）.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6291</t>
+  </si>
+  <si>
+    <t>[DROP][設定][音] メディア音量を一定値以上に上げようとすると、ユーザー確認ダイアログが表示されるよう修正する</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[DROP][設定][音] メディア音量を一定値以上に上げようとすると、ユーザー確認ダイアログが表示されるよう修正する.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5691</t>
+  </si>
+  <si>
+    <t>[P6新規][設定][ディスプレイ]「画面をダブルタップして通知を確認」を「画面をダブルタップしてロック画面を表示」へ名称変更（SettingsApps_R005691</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][ディスプレイ]「画面をダブルタップして通知を確認」を「画面をダブルタップしてロック画面を表示」へ名称変更（SettingsApps_R005691.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5693</t>
+  </si>
+  <si>
+    <t>[P6新規][設定][電池]インテリジェントチャージへの導線追加(SettingsApps_R005693)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][電池]インテリジェントチャージへの導線追加(SettingsApps_R005693).MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5908</t>
+  </si>
+  <si>
+    <t>[設定][ディスプレイ] カテゴリ「表示時間」の追加</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] カテゴリ「表示時間」の追加.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_191</t>
+  </si>
+  <si>
+    <t>[設定] プロキシ設定 の非表示化(SettingsApps_00070)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定] プロキシ設定 の非表示化(SettingsApps_00070).MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6161</t>
+  </si>
+  <si>
+    <t>[設定][全般] LED非搭載に伴い、関連項目を表示化する</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5958</t>
+  </si>
+  <si>
+    <t>[設定][セキュリティ] 信頼できる認証情報を表示するタブの、表示不具合に対応する</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][セキュリティ] 信頼できる認証情報を表示するタブの、表示不具合に対応する.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5692</t>
+  </si>
+  <si>
+    <t>[Drop][P6新規][設定][ディスプレイ] Always ON Display(「時計表示ON」)　の照度連動設定を設ける</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[Drop][P6新規][設定][ディスプレイ] Always ON Display(「時計表示ON」)　の照度連動設定を設ける.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5909</t>
+  </si>
+  <si>
+    <t>[設定][ディスプレイ] カテゴリ「表示」の追加</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] カテゴリ「表示」の追加.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_2685</t>
+  </si>
+  <si>
+    <t>[設定] かんたんホーム設定時、フォントサイズ変更を行う導線を提供する</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定] かんたんホーム設定時、フォントサイズ変更を行う導線を提供する.MD</t>
+  </si>
+  <si>
     <t>指紋認証_PDC0S_1761</t>
   </si>
   <si>
@@ -38,202 +236,58 @@
     <t>Tests/manual/指紋認証/PDC0S/[指紋によるロック解除（画面内センサー端末向け）] 設定の追加.MD</t>
   </si>
   <si>
-    <t>10/15/21 15:15:15</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>本体設定_PKC0S_2603</t>
-  </si>
-  <si>
-    <t>[ネットワーク]「プロキシ設定」メニューの追加(SettingsApps_00070)</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PKC0S/[ネットワーク]「プロキシ設定」メニューの追加(SettingsApps_00070).MD</t>
-  </si>
-  <si>
-    <t>10/20/21 15:15:15</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_5958</t>
-  </si>
-  <si>
-    <t>[設定][セキュリティ] 信頼できる認証情報を表示するタブの、表示不具合に対応する</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][セキュリティ] 信頼できる認証情報を表示するタブの、表示不具合に対応する.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_2685</t>
-  </si>
-  <si>
-    <t>[設定] かんたんホーム設定時、フォントサイズ変更を行う導線を提供する</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定] かんたんホーム設定時、フォントサイズ変更を行う導線を提供する.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_5908</t>
-  </si>
-  <si>
-    <t>[設定][ディスプレイ] カテゴリ「表示時間」の追加</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] カテゴリ「表示時間」の追加.MD</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_6023</t>
-  </si>
-  <si>
-    <t>[設定][ストレージ] 容量表示の変更（SettingsApps_00252）</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][ストレージ] 容量表示の変更（SettingsApps_00252）.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_6161</t>
-  </si>
-  <si>
-    <t>[設定][全般] LED非搭載に伴い、関連項目を表示化する</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_5717</t>
-  </si>
-  <si>
-    <t>[P6新規][設定][端末情報] 「電池の状態」メニュー追加(SettingsApps_00041)</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][端末情報] 「電池の状態」メニュー追加(SettingsApps_00041).MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_5670</t>
-  </si>
-  <si>
-    <t>[P6新規][設定][ディスプレイ] 画面OFF時にロック解除するための設定メニューの追加（SettingsApps_R005670）</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][ディスプレイ] 画面OFF時にロック解除するための設定メニューの追加（SettingsApps_R005670）.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_5691</t>
-  </si>
-  <si>
-    <t>[P6新規][設定][ディスプレイ]「画面をダブルタップして通知を確認」を「画面をダブルタップしてロック画面を表示」へ名称変更（SettingsApps_R005691</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][ディスプレイ]「画面をダブルタップして通知を確認」を「画面をダブルタップしてロック画面を表示」へ名称変更（SettingsApps_R005691.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_6101</t>
-  </si>
-  <si>
-    <t>[設定] 指紋センサー非搭載モデル対応 (SettingsApps_00241)</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定] 指紋センサー非搭載モデル対応 (SettingsApps_00241).MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_6370</t>
-  </si>
-  <si>
-    <t>[設定][その他] インターネット接続のパネルに機内モードを追加する（SettingsApps_00239）（R-OSから対応不要）</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][その他] インターネット接続のパネルに機内モードを追加する（SettingsApps_00239）（R-OSから対応不要）_1.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_5693</t>
-  </si>
-  <si>
-    <t>[P6新規][設定][電池]インテリジェントチャージへの導線追加(SettingsApps_R005693)</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][電池]インテリジェントチャージへの導線追加(SettingsApps_R005693).MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_6295</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][その他] インターネット接続のパネルに機内モードを追加する（SettingsApps_00239）（R-OSから対応不要）.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_6291</t>
-  </si>
-  <si>
-    <t>[DROP][設定][音] メディア音量を一定値以上に上げようとすると、ユーザー確認ダイアログが表示されるよう修正する</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[DROP][設定][音] メディア音量を一定値以上に上げようとすると、ユーザー確認ダイアログが表示されるよう修正する.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_5942</t>
-  </si>
-  <si>
-    <t>[設定][ディスプレイ] カテゴリ「画面の操作」の追加</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] カテゴリ「画面の操作」の追加.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_395</t>
-  </si>
-  <si>
-    <t>[設定][ディスプレイ] 焼き付き対策(SettingsApps_00080)</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] 焼き付き対策(SettingsApps_00080).MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_396</t>
-  </si>
-  <si>
-    <t>[設定][ディスプレイ] グローブモード(SettingsApps_00045)</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] グローブモード(SettingsApps_00045).MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_191</t>
-  </si>
-  <si>
-    <t>[設定] プロキシ設定 の非表示化(SettingsApps_00070)</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定] プロキシ設定 の非表示化(SettingsApps_00070).MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_5909</t>
-  </si>
-  <si>
-    <t>[設定][ディスプレイ] カテゴリ「表示」の追加</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] カテゴリ「表示」の追加.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_2626</t>
-  </si>
-  <si>
-    <t>[ディスプレイ]「スマートカラーマッチング」メニューを追加する(SettingsApps_00236)</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[ディスプレイ]「スマートカラーマッチング」メニューを追加する(SettingsApps_00236).MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_5692</t>
-  </si>
-  <si>
-    <t>[Drop][P6新規][設定][ディスプレイ] Always ON Display(「時計表示ON」)　の照度連動設定を設ける</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[Drop][P6新規][設定][ディスプレイ] Always ON Display(「時計表示ON」)　の照度連動設定を設ける.MD</t>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6550</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）その他（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）その他（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6545</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にダブルタップしてロック画面を表示（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にダブルタップしてロック画面を表示（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_398</t>
+  </si>
+  <si>
+    <t>[設定][AQUOS便利機能][V1.00] 持つと画面点灯(00135)</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[設定][AQUOS便利機能][V1.00] 持つと画面点灯(00135).MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6549</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）Payトリガー（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）Payトリガー（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6570</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック][インテリジェントチャージ]「デバイスを使ってない時だけ充電」機能</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック][インテリジェントチャージ]「デバイスを使ってない時だけ充電」機能.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5818</t>
+  </si>
+  <si>
+    <t>[P6新規][AQUOS便利機能][指紋センサー] 画面内指紋センサーモデルの文言、カテゴリ変更</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能][指紋センサー] 画面内指紋センサーモデルの文言、カテゴリ変更.MD</t>
   </si>
   <si>
     <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6569</t>
@@ -260,22 +314,49 @@
     <t>Suspended</t>
   </si>
   <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5818</t>
-  </si>
-  <si>
-    <t>[P6新規][AQUOS便利機能][指紋センサー] 画面内指紋センサーモデルの文言、カテゴリ変更</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能][指紋センサー] 画面内指紋センサーモデルの文言、カテゴリ変更.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6570</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック][インテリジェントチャージ]「デバイスを使ってない時だけ充電」機能</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック][インテリジェントチャージ]「デバイスを使ってない時だけ充電」機能.MD</t>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5666</t>
+  </si>
+  <si>
+    <t>[P6新規][AQUOS便利機能] AQUOS便利機能の強化</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能] AQUOS便利機能の強化.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5669</t>
+  </si>
+  <si>
+    <t>[P6新規][AQUOS便利機能][指紋センサー] 画面OFF時にロック解除するための設定メニューの追加（#6553と重複のため削除）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能][指紋センサー] 画面OFF時にロック解除するための設定メニューの追加（#6553と重複のため削除）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6548</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）基本設定（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）基本設定（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_1855</t>
+  </si>
+  <si>
+    <t>[設定][AQUOS便利機能][V1.00] 自動画面点灯(SettingsApps_00135)</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[設定][AQUOS便利機能][V1.00] 自動画面点灯(SettingsApps_00135).MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6543</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）設定（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）設定（EP4以降のモデル向け）.MD</t>
   </si>
   <si>
     <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6551</t>
@@ -294,87 +375,6 @@
   </si>
   <si>
     <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック][インテリジェントチャージ]「充電量を制限する」機能.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6550</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック] 指紋センサー（画面内指紋）その他（EP4以降のモデル向け）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）その他（EP4以降のモデル向け）.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6548</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック] 指紋センサー（画面内指紋）基本設定（EP4以降のモデル向け）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）基本設定（EP4以降のモデル向け）.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_398</t>
-  </si>
-  <si>
-    <t>[設定][AQUOS便利機能][V1.00] 持つと画面点灯(00135)</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[設定][AQUOS便利機能][V1.00] 持つと画面点灯(00135).MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6549</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック] 指紋センサー（画面内指紋）Payトリガー（EP4以降のモデル向け）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）Payトリガー（EP4以降のモデル向け）.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6545</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にダブルタップしてロック画面を表示（EP4以降のモデル向け）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にダブルタップしてロック画面を表示（EP4以降のモデル向け）.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5666</t>
-  </si>
-  <si>
-    <t>[P6新規][AQUOS便利機能] AQUOS便利機能の強化</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能] AQUOS便利機能の強化.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_1855</t>
-  </si>
-  <si>
-    <t>[設定][AQUOS便利機能][V1.00] 自動画面点灯(SettingsApps_00135)</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[設定][AQUOS便利機能][V1.00] 自動画面点灯(SettingsApps_00135).MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5669</t>
-  </si>
-  <si>
-    <t>[P6新規][AQUOS便利機能][指紋センサー] 画面OFF時にロック解除するための設定メニューの追加（#6553と重複のため削除）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能][指紋センサー] 画面OFF時にロック解除するための設定メニューの追加（#6553と重複のため削除）.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6543</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック] 指紋センサー（画面内指紋）設定（EP4以降のモデル向け）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）設定（EP4以降のモデル向け）.MD</t>
   </si>
   <si>
     <t>1048</t>
@@ -500,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
         <v>3.0</v>
@@ -517,10 +517,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>125</v>
@@ -531,22 +531,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
@@ -554,19 +554,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>126</v>
@@ -586,7 +586,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -603,7 +603,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -637,7 +637,7 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -648,13 +648,13 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -662,16 +662,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -679,16 +679,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -696,16 +696,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -713,16 +713,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -739,10 +739,10 @@
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -756,10 +756,10 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -773,7 +773,7 @@
         <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -790,10 +790,10 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -807,10 +807,10 @@
         <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -824,7 +824,7 @@
         <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -841,7 +841,7 @@
         <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -858,7 +858,7 @@
         <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -875,7 +875,7 @@
         <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -892,24 +892,24 @@
         <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
         <v>82</v>
       </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -917,16 +917,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
         <v>85</v>
       </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -934,16 +934,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
         <v>88</v>
       </c>
-      <c r="B28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -951,16 +951,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
         <v>91</v>
       </c>
-      <c r="B29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" t="s">
-        <v>93</v>
-      </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -968,16 +968,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
         <v>94</v>
       </c>
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -985,19 +985,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
         <v>97</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>98</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>99</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1011,7 +1011,7 @@
         <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1028,7 +1028,7 @@
         <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -1045,7 +1045,7 @@
         <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -1062,7 +1062,7 @@
         <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -1079,7 +1079,7 @@
         <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -1096,7 +1096,7 @@
         <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -1113,7 +1113,7 @@
         <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -308,88 +308,88 @@
     <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] インテリジェントチャージ.MD</t>
   </si>
   <si>
-    <t>10/16/21 15:15:15</t>
+    <t>10/17/21 15:15:15</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5666</t>
+  </si>
+  <si>
+    <t>[P6新規][AQUOS便利機能] AQUOS便利機能の強化</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能] AQUOS便利機能の強化.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5669</t>
+  </si>
+  <si>
+    <t>[P6新規][AQUOS便利機能][指紋センサー] 画面OFF時にロック解除するための設定メニューの追加（#6553と重複のため削除）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能][指紋センサー] 画面OFF時にロック解除するための設定メニューの追加（#6553と重複のため削除）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6548</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）基本設定（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）基本設定（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_1855</t>
+  </si>
+  <si>
+    <t>[設定][AQUOS便利機能][V1.00] 自動画面点灯(SettingsApps_00135)</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[設定][AQUOS便利機能][V1.00] 自動画面点灯(SettingsApps_00135).MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6543</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）設定（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）設定（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6551</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にタップして指紋センサーと時計を表示（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にタップして指紋センサーと時計を表示（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6568</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック][インテリジェントチャージ]「充電量を制限する」機能</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック][インテリジェントチャージ]「充電量を制限する」機能.MD</t>
+  </si>
+  <si>
+    <t>1048</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Tests/abc.MD</t>
+  </si>
+  <si>
+    <t>12/12/22 13:47:59</t>
+  </si>
+  <si>
+    <t>Not executed</t>
   </si>
   <si>
     <t>Suspended</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5666</t>
-  </si>
-  <si>
-    <t>[P6新規][AQUOS便利機能] AQUOS便利機能の強化</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能] AQUOS便利機能の強化.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5669</t>
-  </si>
-  <si>
-    <t>[P6新規][AQUOS便利機能][指紋センサー] 画面OFF時にロック解除するための設定メニューの追加（#6553と重複のため削除）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能][指紋センサー] 画面OFF時にロック解除するための設定メニューの追加（#6553と重複のため削除）.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6548</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック] 指紋センサー（画面内指紋）基本設定（EP4以降のモデル向け）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）基本設定（EP4以降のモデル向け）.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_1855</t>
-  </si>
-  <si>
-    <t>[設定][AQUOS便利機能][V1.00] 自動画面点灯(SettingsApps_00135)</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[設定][AQUOS便利機能][V1.00] 自動画面点灯(SettingsApps_00135).MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6543</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック] 指紋センサー（画面内指紋）設定（EP4以降のモデル向け）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）設定（EP4以降のモデル向け）.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6551</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にタップして指紋センサーと時計を表示（EP4以降のモデル向け）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にタップして指紋センサーと時計を表示（EP4以降のモデル向け）.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6568</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック][インテリジェントチャージ]「充電量を制限する」機能</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック][インテリジェントチャージ]「充電量を制限する」機能.MD</t>
-  </si>
-  <si>
-    <t>1048</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Tests/abc.MD</t>
-  </si>
-  <si>
-    <t>12/12/22 13:47:59</t>
-  </si>
-  <si>
-    <t>Not executed</t>
   </si>
   <si>
     <t>Total</t>
@@ -480,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +523,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -546,10 +546,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -997,18 +997,18 @@
         <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
         <v>100</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>101</v>
-      </c>
-      <c r="C32" t="s">
-        <v>102</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -1019,13 +1019,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
         <v>103</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>104</v>
-      </c>
-      <c r="C33" t="s">
-        <v>105</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -1036,13 +1036,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
         <v>106</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>107</v>
-      </c>
-      <c r="C34" t="s">
-        <v>108</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" t="s">
         <v>109</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>110</v>
-      </c>
-      <c r="C35" t="s">
-        <v>111</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -1070,13 +1070,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="s">
         <v>112</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>113</v>
-      </c>
-      <c r="C36" t="s">
-        <v>114</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
         <v>115</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>116</v>
-      </c>
-      <c r="C37" t="s">
-        <v>117</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -1104,13 +1104,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" t="s">
         <v>118</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>119</v>
-      </c>
-      <c r="C38" t="s">
-        <v>120</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -1121,16 +1121,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" t="s">
         <v>121</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>122</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>123</v>
-      </c>
-      <c r="D39" t="s">
-        <v>124</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -29,6 +29,150 @@
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
   </si>
   <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5818</t>
+  </si>
+  <si>
+    <t>[P6新規][AQUOS便利機能][指紋センサー] 画面内指紋センサーモデルの文言、カテゴリ変更</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能][指紋センサー] 画面内指紋センサーモデルの文言、カテゴリ変更.MD</t>
+  </si>
+  <si>
+    <t>10/15/21 15:15:15</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6567</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] インテリジェントチャージ</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] インテリジェントチャージ.MD</t>
+  </si>
+  <si>
+    <t>10/17/21 15:15:15</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6550</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）その他（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）その他（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5666</t>
+  </si>
+  <si>
+    <t>[P6新規][AQUOS便利機能] AQUOS便利機能の強化</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能] AQUOS便利機能の強化.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6549</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）Payトリガー（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）Payトリガー（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_398</t>
+  </si>
+  <si>
+    <t>[設定][AQUOS便利機能][V1.00] 持つと画面点灯(00135)</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[設定][AQUOS便利機能][V1.00] 持つと画面点灯(00135).MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6570</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック][インテリジェントチャージ]「デバイスを使ってない時だけ充電」機能</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック][インテリジェントチャージ]「デバイスを使ってない時だけ充電」機能.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6545</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にダブルタップしてロック画面を表示（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にダブルタップしてロック画面を表示（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6543</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）設定（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）設定（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5669</t>
+  </si>
+  <si>
+    <t>[P6新規][AQUOS便利機能][指紋センサー] 画面OFF時にロック解除するための設定メニューの追加（#6553と重複のため削除）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能][指紋センサー] 画面OFF時にロック解除するための設定メニューの追加（#6553と重複のため削除）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6551</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にタップして指紋センサーと時計を表示（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にタップして指紋センサーと時計を表示（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_1855</t>
+  </si>
+  <si>
+    <t>[設定][AQUOS便利機能][V1.00] 自動画面点灯(SettingsApps_00135)</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[設定][AQUOS便利機能][V1.00] 自動画面点灯(SettingsApps_00135).MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6548</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック] 指紋センサー（画面内指紋）基本設定（EP4以降のモデル向け）</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）基本設定（EP4以降のモデル向け）.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6569</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック][インテリジェントチャージ]「月に1回は満充電まで充電する」機能</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック][インテリジェントチャージ]「月に1回は満充電まで充電する」機能.MD</t>
+  </si>
+  <si>
+    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6568</t>
+  </si>
+  <si>
+    <t>[AQUOSトリック][インテリジェントチャージ]「充電量を制限する」機能</t>
+  </si>
+  <si>
+    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック][インテリジェントチャージ]「充電量を制限する」機能.MD</t>
+  </si>
+  <si>
     <t>本体設定_PKC0S_2603</t>
   </si>
   <si>
@@ -41,7 +185,166 @@
     <t>10/20/21 15:15:15</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>本体設定_PDC0S_5942</t>
+  </si>
+  <si>
+    <t>[設定][ディスプレイ] カテゴリ「画面の操作」の追加</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] カテゴリ「画面の操作」の追加.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6023</t>
+  </si>
+  <si>
+    <t>[設定][ストレージ] 容量表示の変更（SettingsApps_00252）</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ストレージ] 容量表示の変更（SettingsApps_00252）.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5909</t>
+  </si>
+  <si>
+    <t>[設定][ディスプレイ] カテゴリ「表示」の追加</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] カテゴリ「表示」の追加.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6295</t>
+  </si>
+  <si>
+    <t>[設定][その他] インターネット接続のパネルに機内モードを追加する（SettingsApps_00239）（R-OSから対応不要）</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][その他] インターネット接続のパネルに機内モードを追加する（SettingsApps_00239）（R-OSから対応不要）.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5958</t>
+  </si>
+  <si>
+    <t>[設定][セキュリティ] 信頼できる認証情報を表示するタブの、表示不具合に対応する</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][セキュリティ] 信頼できる認証情報を表示するタブの、表示不具合に対応する.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5717</t>
+  </si>
+  <si>
+    <t>[P6新規][設定][端末情報] 「電池の状態」メニュー追加(SettingsApps_00041)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][端末情報] 「電池の状態」メニュー追加(SettingsApps_00041).MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_396</t>
+  </si>
+  <si>
+    <t>[設定][ディスプレイ] グローブモード(SettingsApps_00045)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] グローブモード(SettingsApps_00045).MD</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6161</t>
+  </si>
+  <si>
+    <t>[設定][全般] LED非搭載に伴い、関連項目を表示化する</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6101</t>
+  </si>
+  <si>
+    <t>[設定] 指紋センサー非搭載モデル対応 (SettingsApps_00241)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定] 指紋センサー非搭載モデル対応 (SettingsApps_00241).MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6370</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][その他] インターネット接続のパネルに機内モードを追加する（SettingsApps_00239）（R-OSから対応不要）_1.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5693</t>
+  </si>
+  <si>
+    <t>[P6新規][設定][電池]インテリジェントチャージへの導線追加(SettingsApps_R005693)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][電池]インテリジェントチャージへの導線追加(SettingsApps_R005693).MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5670</t>
+  </si>
+  <si>
+    <t>[P6新規][設定][ディスプレイ] 画面OFF時にロック解除するための設定メニューの追加（SettingsApps_R005670）</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][ディスプレイ] 画面OFF時にロック解除するための設定メニューの追加（SettingsApps_R005670）.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_6291</t>
+  </si>
+  <si>
+    <t>[DROP][設定][音] メディア音量を一定値以上に上げようとすると、ユーザー確認ダイアログが表示されるよう修正する</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[DROP][設定][音] メディア音量を一定値以上に上げようとすると、ユーザー確認ダイアログが表示されるよう修正する.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_2685</t>
+  </si>
+  <si>
+    <t>[設定] かんたんホーム設定時、フォントサイズ変更を行う導線を提供する</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定] かんたんホーム設定時、フォントサイズ変更を行う導線を提供する.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_2626</t>
+  </si>
+  <si>
+    <t>[ディスプレイ]「スマートカラーマッチング」メニューを追加する(SettingsApps_00236)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[ディスプレイ]「スマートカラーマッチング」メニューを追加する(SettingsApps_00236).MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5908</t>
+  </si>
+  <si>
+    <t>[設定][ディスプレイ] カテゴリ「表示時間」の追加</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] カテゴリ「表示時間」の追加.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_5691</t>
+  </si>
+  <si>
+    <t>[P6新規][設定][ディスプレイ]「画面をダブルタップして通知を確認」を「画面をダブルタップしてロック画面を表示」へ名称変更（SettingsApps_R005691</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][ディスプレイ]「画面をダブルタップして通知を確認」を「画面をダブルタップしてロック画面を表示」へ名称変更（SettingsApps_R005691.MD</t>
+  </si>
+  <si>
+    <t>本体設定_PDC0S_191</t>
+  </si>
+  <si>
+    <t>[設定] プロキシ設定 の非表示化(SettingsApps_00070)</t>
+  </si>
+  <si>
+    <t>Tests/manual/本体設定/PDC0S/[設定] プロキシ設定 の非表示化(SettingsApps_00070).MD</t>
   </si>
   <si>
     <t>本体設定_PDC0S_395</t>
@@ -53,153 +356,6 @@
     <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] 焼き付き対策(SettingsApps_00080).MD</t>
   </si>
   <si>
-    <t>10/15/21 15:15:15</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_396</t>
-  </si>
-  <si>
-    <t>[設定][ディスプレイ] グローブモード(SettingsApps_00045)</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] グローブモード(SettingsApps_00045).MD</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_5942</t>
-  </si>
-  <si>
-    <t>[設定][ディスプレイ] カテゴリ「画面の操作」の追加</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] カテゴリ「画面の操作」の追加.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_6370</t>
-  </si>
-  <si>
-    <t>[設定][その他] インターネット接続のパネルに機内モードを追加する（SettingsApps_00239）（R-OSから対応不要）</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][その他] インターネット接続のパネルに機内モードを追加する（SettingsApps_00239）（R-OSから対応不要）_1.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_6023</t>
-  </si>
-  <si>
-    <t>[設定][ストレージ] 容量表示の変更（SettingsApps_00252）</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][ストレージ] 容量表示の変更（SettingsApps_00252）.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_2626</t>
-  </si>
-  <si>
-    <t>[ディスプレイ]「スマートカラーマッチング」メニューを追加する(SettingsApps_00236)</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[ディスプレイ]「スマートカラーマッチング」メニューを追加する(SettingsApps_00236).MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_5717</t>
-  </si>
-  <si>
-    <t>[P6新規][設定][端末情報] 「電池の状態」メニュー追加(SettingsApps_00041)</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][端末情報] 「電池の状態」メニュー追加(SettingsApps_00041).MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_6101</t>
-  </si>
-  <si>
-    <t>[設定] 指紋センサー非搭載モデル対応 (SettingsApps_00241)</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定] 指紋センサー非搭載モデル対応 (SettingsApps_00241).MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_6295</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][その他] インターネット接続のパネルに機内モードを追加する（SettingsApps_00239）（R-OSから対応不要）.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_5670</t>
-  </si>
-  <si>
-    <t>[P6新規][設定][ディスプレイ] 画面OFF時にロック解除するための設定メニューの追加（SettingsApps_R005670）</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][ディスプレイ] 画面OFF時にロック解除するための設定メニューの追加（SettingsApps_R005670）.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_6291</t>
-  </si>
-  <si>
-    <t>[DROP][設定][音] メディア音量を一定値以上に上げようとすると、ユーザー確認ダイアログが表示されるよう修正する</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[DROP][設定][音] メディア音量を一定値以上に上げようとすると、ユーザー確認ダイアログが表示されるよう修正する.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_5691</t>
-  </si>
-  <si>
-    <t>[P6新規][設定][ディスプレイ]「画面をダブルタップして通知を確認」を「画面をダブルタップしてロック画面を表示」へ名称変更（SettingsApps_R005691</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][ディスプレイ]「画面をダブルタップして通知を確認」を「画面をダブルタップしてロック画面を表示」へ名称変更（SettingsApps_R005691.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_5693</t>
-  </si>
-  <si>
-    <t>[P6新規][設定][電池]インテリジェントチャージへの導線追加(SettingsApps_R005693)</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[P6新規][設定][電池]インテリジェントチャージへの導線追加(SettingsApps_R005693).MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_5908</t>
-  </si>
-  <si>
-    <t>[設定][ディスプレイ] カテゴリ「表示時間」の追加</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] カテゴリ「表示時間」の追加.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_191</t>
-  </si>
-  <si>
-    <t>[設定] プロキシ設定 の非表示化(SettingsApps_00070)</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定] プロキシ設定 の非表示化(SettingsApps_00070).MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_6161</t>
-  </si>
-  <si>
-    <t>[設定][全般] LED非搭載に伴い、関連項目を表示化する</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][全般] LED非搭載に伴い、関連項目を表示化する.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_5958</t>
-  </si>
-  <si>
-    <t>[設定][セキュリティ] 信頼できる認証情報を表示するタブの、表示不具合に対応する</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][セキュリティ] 信頼できる認証情報を表示するタブの、表示不具合に対応する.MD</t>
-  </si>
-  <si>
     <t>本体設定_PDC0S_5692</t>
   </si>
   <si>
@@ -209,24 +365,6 @@
     <t>Tests/manual/本体設定/PDC0S/[Drop][P6新規][設定][ディスプレイ] Always ON Display(「時計表示ON」)　の照度連動設定を設ける.MD</t>
   </si>
   <si>
-    <t>本体設定_PDC0S_5909</t>
-  </si>
-  <si>
-    <t>[設定][ディスプレイ] カテゴリ「表示」の追加</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定][ディスプレイ] カテゴリ「表示」の追加.MD</t>
-  </si>
-  <si>
-    <t>本体設定_PDC0S_2685</t>
-  </si>
-  <si>
-    <t>[設定] かんたんホーム設定時、フォントサイズ変更を行う導線を提供する</t>
-  </si>
-  <si>
-    <t>Tests/manual/本体設定/PDC0S/[設定] かんたんホーム設定時、フォントサイズ変更を行う導線を提供する.MD</t>
-  </si>
-  <si>
     <t>指紋認証_PDC0S_1761</t>
   </si>
   <si>
@@ -234,144 +372,6 @@
   </si>
   <si>
     <t>Tests/manual/指紋認証/PDC0S/[指紋によるロック解除（画面内センサー端末向け）] 設定の追加.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6550</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック] 指紋センサー（画面内指紋）その他（EP4以降のモデル向け）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）その他（EP4以降のモデル向け）.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6545</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にダブルタップしてロック画面を表示（EP4以降のモデル向け）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にダブルタップしてロック画面を表示（EP4以降のモデル向け）.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_398</t>
-  </si>
-  <si>
-    <t>[設定][AQUOS便利機能][V1.00] 持つと画面点灯(00135)</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[設定][AQUOS便利機能][V1.00] 持つと画面点灯(00135).MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6549</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック] 指紋センサー（画面内指紋）Payトリガー（EP4以降のモデル向け）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）Payトリガー（EP4以降のモデル向け）.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6570</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック][インテリジェントチャージ]「デバイスを使ってない時だけ充電」機能</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック][インテリジェントチャージ]「デバイスを使ってない時だけ充電」機能.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5818</t>
-  </si>
-  <si>
-    <t>[P6新規][AQUOS便利機能][指紋センサー] 画面内指紋センサーモデルの文言、カテゴリ変更</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能][指紋センサー] 画面内指紋センサーモデルの文言、カテゴリ変更.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6569</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック][インテリジェントチャージ]「月に1回は満充電まで充電する」機能</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック][インテリジェントチャージ]「月に1回は満充電まで充電する」機能.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6567</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック] インテリジェントチャージ</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] インテリジェントチャージ.MD</t>
-  </si>
-  <si>
-    <t>10/17/21 15:15:15</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5666</t>
-  </si>
-  <si>
-    <t>[P6新規][AQUOS便利機能] AQUOS便利機能の強化</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能] AQUOS便利機能の強化.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_5669</t>
-  </si>
-  <si>
-    <t>[P6新規][AQUOS便利機能][指紋センサー] 画面OFF時にロック解除するための設定メニューの追加（#6553と重複のため削除）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[P6新規][AQUOS便利機能][指紋センサー] 画面OFF時にロック解除するための設定メニューの追加（#6553と重複のため削除）.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6548</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック] 指紋センサー（画面内指紋）基本設定（EP4以降のモデル向け）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）基本設定（EP4以降のモデル向け）.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_1855</t>
-  </si>
-  <si>
-    <t>[設定][AQUOS便利機能][V1.00] 自動画面点灯(SettingsApps_00135)</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[設定][AQUOS便利機能][V1.00] 自動画面点灯(SettingsApps_00135).MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6543</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック] 指紋センサー（画面内指紋）設定（EP4以降のモデル向け）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）設定（EP4以降のモデル向け）.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6551</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にタップして指紋センサーと時計を表示（EP4以降のモデル向け）</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック] 指紋センサー（画面内指紋）画面OFF時にタップして指紋センサーと時計を表示（EP4以降のモデル向け）.MD</t>
-  </si>
-  <si>
-    <t>AQUOS便利機能（AQUOSトリック）_PDC0S_6568</t>
-  </si>
-  <si>
-    <t>[AQUOSトリック][インテリジェントチャージ]「充電量を制限する」機能</t>
-  </si>
-  <si>
-    <t>Tests/manual/AQUOS便利機能（AQUOSトリック/PDC0S/[AQUOSトリック][インテリジェントチャージ]「充電量を制限する」機能.MD</t>
   </si>
   <si>
     <t>1048</t>
@@ -500,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="G3" t="n">
         <v>3.0</v>
@@ -517,10 +517,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>124</v>
@@ -531,16 +531,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -554,16 +554,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -577,16 +577,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -594,16 +594,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -611,16 +611,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -628,16 +628,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -645,16 +645,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -671,7 +671,7 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -688,7 +688,7 @@
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -705,7 +705,7 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -722,7 +722,7 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -739,10 +739,10 @@
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -756,24 +756,24 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -781,16 +781,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -798,16 +798,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -815,16 +815,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -832,16 +832,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -849,16 +849,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -866,33 +866,33 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -900,16 +900,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -917,16 +917,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -934,16 +934,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -951,16 +951,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -968,16 +968,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -985,16 +985,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1011,7 +1011,7 @@
         <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1028,10 +1028,10 @@
         <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -1045,7 +1045,7 @@
         <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -1062,10 +1062,10 @@
         <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -1079,7 +1079,7 @@
         <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -1096,7 +1096,7 @@
         <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -1113,7 +1113,7 @@
         <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
